--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220420.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220420.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前股价位置属于趋势的周期</t>
     </r>
     <r>
@@ -59,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格行为</t>
     </r>
     <r>
@@ -131,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位和压力位是否同步升高</t>
     </r>
     <r>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否有网球行为出现</t>
     </r>
     <r>
@@ -179,6 +203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上涨天数是否大于下跌天数</t>
     </r>
     <r>
@@ -203,6 +233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不同收盘表现时交易量情况</t>
     </r>
     <r>
@@ -227,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成交量收缩情况</t>
     </r>
     <r>
@@ -284,6 +326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>时间周期</t>
     </r>
     <r>
@@ -326,6 +374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>收缩数量</t>
     </r>
     <r>
@@ -2556,13 +2610,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2595,6 +2649,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2609,7 +2670,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2631,31 +2692,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,21 +2725,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2707,32 +2739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2744,8 +2753,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2778,12 +2832,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2796,7 +2844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,13 +2874,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,37 +2928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,25 +2946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,25 +2970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2946,31 +3000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,8 +3070,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,218 +3160,168 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3303,60 +3351,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3754,11 +3793,11 @@
   <dimension ref="A1:AN370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="$A36:$XFD36"/>
+      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3813,27 +3852,27 @@
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="30" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30" t="s">
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3885,31 +3924,31 @@
       <c r="W2" s="20"/>
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="28" t="s">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="28" t="s">
+      <c r="AK2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="28" t="s">
+      <c r="AL2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
     </row>
     <row r="3" ht="41" spans="1:40">
       <c r="A3" s="5"/>
@@ -3959,7 +3998,7 @@
       <c r="Y3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="AA3" s="17" t="s">
@@ -3974,22 +4013,22 @@
       <c r="AD3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="AE3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="29" t="s">
+      <c r="AF3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="31" t="s">
+      <c r="AG3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="33"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="8" t="s">
@@ -5817,8 +5856,12 @@
       <c r="S36" s="24">
         <v>11.23</v>
       </c>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
+      <c r="T36" s="24">
+        <v>15.15</v>
+      </c>
+      <c r="U36" s="24">
+        <v>12.5</v>
+      </c>
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
@@ -5836,9 +5879,9 @@
         <f>(R36-S36)/R36</f>
         <v>0.149886449659349</v>
       </c>
-      <c r="AD36" s="18" t="e">
+      <c r="AD36" s="18">
         <f>(T36-U36)/T36</f>
-        <v>#DIV/0!</v>
+        <v>0.174917491749175</v>
       </c>
       <c r="AE36" s="23"/>
       <c r="AF36" s="23"/>

--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220420.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220420.xlsx
@@ -3797,7 +3797,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
+      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
